--- a/data/trans_dic/P1423_2016_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1423_2016_2023-Edad-trans_dic.xlsx
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008215351894008275</v>
+        <v>0.009427997142939019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002370312830501979</v>
+        <v>0.0023852288706743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006027811605279041</v>
+        <v>0.005960569521418742</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.002377209211143552</v>
+        <v>0.002375799994910207</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01138891060428076</v>
+        <v>0.0116772073569419</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02172657500723053</v>
+        <v>0.01842227214541427</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06303030423531145</v>
+        <v>0.06131646004544309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01982071634270683</v>
+        <v>0.02153481578189711</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05338280380669311</v>
+        <v>0.05444304940774617</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01518322445155905</v>
+        <v>0.01476538799285012</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04431203046825819</v>
+        <v>0.0462514352839401</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.01080838909765881</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02668608545955016</v>
+        <v>0.02668608545955017</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.007782353747761954</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001590608813843147</v>
+        <v>0.001599974875276352</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003458398067829213</v>
+        <v>0.003466468805885907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004064014816388614</v>
+        <v>0.004897836089243307</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01351492886988082</v>
+        <v>0.0147985941243982</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.003984954271877597</v>
+        <v>0.00405825843361439</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0115348922525638</v>
+        <v>0.01115964490917443</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01151260875770636</v>
+        <v>0.01309114099206654</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03177537626551424</v>
+        <v>0.03210434609952473</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02237661186312655</v>
+        <v>0.02299437772038648</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04547799103454264</v>
+        <v>0.04625870177264755</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01425042246477467</v>
+        <v>0.01473466769386222</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03202423504968126</v>
+        <v>0.03255334161889724</v>
       </c>
     </row>
     <row r="10">
@@ -782,13 +782,13 @@
         <v>0.04079526530256803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0483239855012084</v>
+        <v>0.04832398550120841</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02570260619793804</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.04455393454876416</v>
+        <v>0.04455393454876417</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005191711424732679</v>
+        <v>0.004191204203072286</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02640994804880527</v>
+        <v>0.02560896196551857</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02808180873997072</v>
+        <v>0.02771861497241139</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03528538056214672</v>
+        <v>0.03546198739133827</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01833559934763572</v>
+        <v>0.01749746040489107</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03518313001104091</v>
+        <v>0.03403546509584595</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02227489559765875</v>
+        <v>0.02155833702797043</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06410231056852088</v>
+        <v>0.06140401650585963</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05844000834173619</v>
+        <v>0.05646711800453757</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06444864308161785</v>
+        <v>0.06434049149710074</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03472435085141547</v>
+        <v>0.03577445855090639</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05806747429560168</v>
+        <v>0.05634880496501654</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.07434040201016019</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08944458664208543</v>
+        <v>0.08944458664208545</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04927939579746596</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.08001151786394323</v>
+        <v>0.08001151786394324</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01443638541073127</v>
+        <v>0.01391884727745623</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05224878246502955</v>
+        <v>0.05264003055291411</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0558212959420329</v>
+        <v>0.05561356389896562</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07400701462277699</v>
+        <v>0.07210547309400114</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03822259046295733</v>
+        <v>0.03825758761236408</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06710736685857439</v>
+        <v>0.06755567760924731</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04061474351659124</v>
+        <v>0.03847196872524568</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09241892130157885</v>
+        <v>0.09427447357645323</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09906074731464788</v>
+        <v>0.09666772122568622</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.106647094600051</v>
+        <v>0.1061679888073747</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06322963051522131</v>
+        <v>0.06293655737801285</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09294409763528051</v>
+        <v>0.09375907347338568</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02879262658865767</v>
+        <v>0.02827632586207871</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04996556089273062</v>
+        <v>0.05035232662354321</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1062867555240361</v>
+        <v>0.1058493984833613</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1126837075175135</v>
+        <v>0.1125587703682758</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07414500330540405</v>
+        <v>0.07336740144987597</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08629786134667179</v>
+        <v>0.08651316889118146</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0728749141771549</v>
+        <v>0.06859886471062247</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08904986837564773</v>
+        <v>0.08865823472887467</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1685264739036864</v>
+        <v>0.1724907212805407</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1554057794825237</v>
+        <v>0.1551119346415354</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.113046802426802</v>
+        <v>0.11514770856673</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1151135298386182</v>
+        <v>0.1162393686422752</v>
       </c>
     </row>
     <row r="19">
@@ -1034,7 +1034,7 @@
         <v>0.07074623780460651</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.07904011672655181</v>
+        <v>0.07904011672655183</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.005901589402396328</v>
+        <v>0.005874455692310872</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02294872690480901</v>
+        <v>0.0237186292420965</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08751689066041765</v>
+        <v>0.08591664554316962</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09820820524997684</v>
+        <v>0.09551209137409369</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05350616849683196</v>
+        <v>0.05295302562385218</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06523294851318777</v>
+        <v>0.0654532099591008</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03679285381852018</v>
+        <v>0.03396653577795941</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05375859912229086</v>
+        <v>0.05601615922845028</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1573828508967431</v>
+        <v>0.1540523046976387</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1431626165212914</v>
+        <v>0.1425591441671558</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09139362576715664</v>
+        <v>0.09354162269693853</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09331714956257833</v>
+        <v>0.09425557727460315</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.05664639940232846</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.07270989900262821</v>
+        <v>0.0727098990026282</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1172775839928888</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03521030640299955</v>
+        <v>0.03552254317178326</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05201090839435569</v>
+        <v>0.04864556288501393</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08123762587623087</v>
+        <v>0.08475159754231767</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1041156934708777</v>
+        <v>0.1014503788931615</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07249569022814543</v>
+        <v>0.071066879565893</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08899506158129605</v>
+        <v>0.08767508652459138</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08914735615698116</v>
+        <v>0.08782373659462347</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1002957069749124</v>
+        <v>0.1005647651012101</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1545460375168195</v>
+        <v>0.1574367094741239</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1488425381944494</v>
+        <v>0.149118735342732</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1243028584512005</v>
+        <v>0.1223529793651094</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1234587961325451</v>
+        <v>0.1229996212906155</v>
       </c>
     </row>
     <row r="25">
@@ -1192,13 +1192,13 @@
         <v>0.06860020790708224</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.08221457216536378</v>
+        <v>0.08221457216536376</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.04521217020315022</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.06560351299113855</v>
+        <v>0.06560351299113852</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01629192073501472</v>
+        <v>0.01634531138318632</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04074628292079062</v>
+        <v>0.04095648008583515</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06100156636478217</v>
+        <v>0.05979906100311071</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0742371348432935</v>
+        <v>0.07578956337253714</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0399552933412346</v>
+        <v>0.03994830298654171</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06051054356348379</v>
+        <v>0.06032409851558618</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02605856242463973</v>
+        <v>0.02670850107493453</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05616623059858272</v>
+        <v>0.05593684742709937</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07832512666272341</v>
+        <v>0.07847076478627414</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.08943385355708398</v>
+        <v>0.09012148307418183</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05060333198219224</v>
+        <v>0.05067060292882652</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07106918517395236</v>
+        <v>0.07082913204365109</v>
       </c>
     </row>
     <row r="28">
@@ -1443,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3350</v>
+        <v>3845</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2185</v>
+        <v>2161</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8773</v>
+        <v>8995</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9113</v>
+        <v>7727</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25703</v>
+        <v>25004</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7844</v>
+        <v>8523</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19352</v>
+        <v>19736</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12378</v>
+        <v>12037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>34134</v>
+        <v>35628</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2290</v>
+        <v>2760</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6772</v>
+        <v>7415</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4599</v>
+        <v>4683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11281</v>
+        <v>10914</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6798</v>
+        <v>7730</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15153</v>
+        <v>15310</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12610</v>
+        <v>12958</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22788</v>
+        <v>23179</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16446</v>
+        <v>17004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>31319</v>
+        <v>31836</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3474</v>
+        <v>2804</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16365</v>
+        <v>15869</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18573</v>
+        <v>18333</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21902</v>
+        <v>22012</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>24395</v>
+        <v>23280</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>43640</v>
+        <v>42217</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14904</v>
+        <v>14425</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39721</v>
+        <v>38049</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38651</v>
+        <v>37347</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40005</v>
+        <v>39937</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>46200</v>
+        <v>47597</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>72026</v>
+        <v>69894</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9327</v>
+        <v>8992</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36606</v>
+        <v>36881</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36232</v>
+        <v>36097</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54402</v>
+        <v>53004</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>49503</v>
+        <v>49548</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>96347</v>
+        <v>96991</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26239</v>
+        <v>24855</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>64750</v>
+        <v>66050</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>64298</v>
+        <v>62745</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>78396</v>
+        <v>78044</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>81890</v>
+        <v>81511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>133441</v>
+        <v>134611</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13761</v>
+        <v>13514</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>30322</v>
+        <v>30557</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>52808</v>
+        <v>52591</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>68449</v>
+        <v>68374</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>72274</v>
+        <v>71516</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>104792</v>
+        <v>105053</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>34828</v>
+        <v>32785</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>54040</v>
+        <v>53803</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>83732</v>
+        <v>85702</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>94401</v>
+        <v>94222</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>110194</v>
+        <v>112242</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>139783</v>
+        <v>141150</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9322</v>
+        <v>9635</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>33061</v>
+        <v>32456</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>43062</v>
+        <v>41880</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>38101</v>
+        <v>37707</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>55102</v>
+        <v>55288</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12301</v>
+        <v>11356</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21837</v>
+        <v>22754</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>59453</v>
+        <v>58195</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>62774</v>
+        <v>62509</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>65081</v>
+        <v>66610</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>78824</v>
+        <v>79617</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>9049</v>
+        <v>9129</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>16095</v>
+        <v>15054</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>32509</v>
+        <v>33915</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>48373</v>
+        <v>47135</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>47642</v>
+        <v>46703</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>68888</v>
+        <v>67866</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>22911</v>
+        <v>22571</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>31037</v>
+        <v>31121</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>61845</v>
+        <v>63001</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>69154</v>
+        <v>69282</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>81688</v>
+        <v>80406</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>95565</v>
+        <v>95210</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>55300</v>
+        <v>55482</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>143732</v>
+        <v>144473</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>216223</v>
+        <v>211960</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>276900</v>
+        <v>282691</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>277245</v>
+        <v>277197</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>439151</v>
+        <v>437798</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>88452</v>
+        <v>90658</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>198125</v>
+        <v>197316</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>277627</v>
+        <v>278143</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>333583</v>
+        <v>336148</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>351131</v>
+        <v>351598</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>515779</v>
+        <v>514037</v>
       </c>
     </row>
     <row r="36">
